--- a/Backend/API.xlsx
+++ b/Backend/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\287927\Documents\Project\Balance Point\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CBE1A1-B69C-4445-8757-C07A1E1F1F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3393C7D-762B-4A8C-A527-12DEF82CC8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>API Name</t>
   </si>
@@ -118,6 +118,84 @@
   </si>
   <si>
     <t>Retrieve details of a single workout session.</t>
+  </si>
+  <si>
+    <t>/meals/</t>
+  </si>
+  <si>
+    <t>Create a new meal</t>
+  </si>
+  <si>
+    <t>Retrieve all meals for a user</t>
+  </si>
+  <si>
+    <t>/meals/&lt;meal_id&gt;/</t>
+  </si>
+  <si>
+    <t>Retrieve a specific meal</t>
+  </si>
+  <si>
+    <t>PATCH</t>
+  </si>
+  <si>
+    <t>Update an existing meal</t>
+  </si>
+  <si>
+    <t>Delete a meal</t>
+  </si>
+  <si>
+    <t>/food-items/</t>
+  </si>
+  <si>
+    <t>Retrieve all food items</t>
+  </si>
+  <si>
+    <t>Create a new food item</t>
+  </si>
+  <si>
+    <t>/food-items/&lt;id&gt;/</t>
+  </si>
+  <si>
+    <t>Retrieve a specific food item</t>
+  </si>
+  <si>
+    <t>Update an existing food item</t>
+  </si>
+  <si>
+    <t>Delete a food item</t>
+  </si>
+  <si>
+    <t>Create Meal</t>
+  </si>
+  <si>
+    <t>Retrieve All Meals</t>
+  </si>
+  <si>
+    <t>Retrieve Specific Meal</t>
+  </si>
+  <si>
+    <t>Update Meal</t>
+  </si>
+  <si>
+    <t>Delete Meal</t>
+  </si>
+  <si>
+    <t>Retrieve All Food Items</t>
+  </si>
+  <si>
+    <t>Create Food Item</t>
+  </si>
+  <si>
+    <t>Retrieve Specific Food Item</t>
+  </si>
+  <si>
+    <t>Update Food Item</t>
+  </si>
+  <si>
+    <t>Delete Food Item</t>
+  </si>
+  <si>
+    <t>/meals/user/&lt;user_id&gt;</t>
   </si>
 </sst>
 </file>
@@ -464,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -478,7 +556,7 @@
     <col min="4" max="4" width="48.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,6 +694,146 @@
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="4" customFormat="1">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1">
+      <c r="A15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="4" customFormat="1">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="4" customFormat="1">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1">
+      <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="4" customFormat="1">
+      <c r="A19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="4" customFormat="1">
+      <c r="A20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="4" customFormat="1">
+      <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="4" customFormat="1">
+      <c r="A22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="4" customFormat="1">
+      <c r="A23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Backend/API.xlsx
+++ b/Backend/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\287927\Documents\Project\Balance Point\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3393C7D-762B-4A8C-A527-12DEF82CC8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2DF26E-E784-4902-A8AE-A6C447ADD180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>API Name</t>
   </si>
@@ -196,6 +196,60 @@
   </si>
   <si>
     <t>/meals/user/&lt;user_id&gt;</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>/user/register/</t>
+  </si>
+  <si>
+    <t>Creates a new user and a corresponding UserAssessment instance in one request.</t>
+  </si>
+  <si>
+    <t>Sign In</t>
+  </si>
+  <si>
+    <t>/user/login/</t>
+  </si>
+  <si>
+    <t>Authenticates a user and returns a JWT token upon successful login.</t>
+  </si>
+  <si>
+    <t>Sign Out</t>
+  </si>
+  <si>
+    <t>/user/logout/</t>
+  </si>
+  <si>
+    <t>Handles user logout, discarding the JWT token on the client side or blacklisting it if needed.</t>
+  </si>
+  <si>
+    <t>Initiates the password reset process for a user.</t>
+  </si>
+  <si>
+    <t>Password Reset</t>
+  </si>
+  <si>
+    <t>User Profile</t>
+  </si>
+  <si>
+    <t>/user/profile/&lt;id&gt;</t>
+  </si>
+  <si>
+    <t>Retrieves user profile information and UserAssessment instance together in one request.</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>User Assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updates UserAssessment instance </t>
+  </si>
+  <si>
+    <t>/user/change-password/</t>
   </si>
 </sst>
 </file>
@@ -224,7 +278,7 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +288,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -262,6 +322,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -836,6 +909,90 @@
         <v>45</v>
       </c>
     </row>
+    <row r="27" spans="1:4" s="4" customFormat="1" ht="29">
+      <c r="A27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="29">
+      <c r="A28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="29">
+      <c r="A29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="9" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="4" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="4" customFormat="1">
+      <c r="A32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Backend/API.xlsx
+++ b/Backend/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\287927\Documents\Project\Balance Point\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2DF26E-E784-4902-A8AE-A6C447ADD180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F661A7-35BC-4226-B81B-DD47BAEB71D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
   <si>
     <t>API Name</t>
   </si>
@@ -250,6 +250,93 @@
   </si>
   <si>
     <t>/user/change-password/</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>/user/refresh</t>
+  </si>
+  <si>
+    <t>Refreshes the jwt token and access token</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Dashboards</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Councilor</t>
+  </si>
+  <si>
+    <t>Insights</t>
+  </si>
+  <si>
+    <t>Exercise</t>
+  </si>
+  <si>
+    <t>Exercise logs</t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>New exercise</t>
+  </si>
+  <si>
+    <t>Diet</t>
+  </si>
+  <si>
+    <t>Logs</t>
+  </si>
+  <si>
+    <t>stats</t>
+  </si>
+  <si>
+    <t>Hydration</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Dairy</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>logs</t>
+  </si>
+  <si>
+    <t>Suggestions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login </t>
+  </si>
+  <si>
+    <t>Registration Page</t>
+  </si>
+  <si>
+    <t>Navbar</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Profile</t>
   </si>
 </sst>
 </file>
@@ -293,7 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -322,12 +409,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -615,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -627,6 +708,7 @@
     <col min="2" max="2" width="29.08984375" customWidth="1"/>
     <col min="3" max="3" width="20.26953125" customWidth="1"/>
     <col min="4" max="4" width="48.90625" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -923,74 +1005,196 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="29">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:4" s="4" customFormat="1">
+      <c r="A28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="4" customFormat="1" ht="29">
+      <c r="A29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D29" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="29">
-      <c r="A29" s="5" t="s">
+    <row r="30" spans="1:4" s="7" customFormat="1" ht="29">
+      <c r="A30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="9" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A30" s="7" t="s">
+    <row r="31" spans="1:4" s="4" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D31" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="4" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:4" s="4" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A32" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="4" customFormat="1">
-      <c r="A32" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="4" customFormat="1">
+      <c r="A33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Backend/API.xlsx
+++ b/Backend/API.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\287927\Documents\Project\Balance Point\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F661A7-35BC-4226-B81B-DD47BAEB71D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD810EF8-D1E2-4F81-B4C8-ACF94C6241E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="176">
   <si>
     <t>API Name</t>
   </si>
@@ -231,21 +242,6 @@
     <t>Password Reset</t>
   </si>
   <si>
-    <t>User Profile</t>
-  </si>
-  <si>
-    <t>/user/profile/&lt;id&gt;</t>
-  </si>
-  <si>
-    <t>Retrieves user profile information and UserAssessment instance together in one request.</t>
-  </si>
-  <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t>User Assessment</t>
-  </si>
-  <si>
     <t xml:space="preserve">Updates UserAssessment instance </t>
   </si>
   <si>
@@ -337,6 +333,237 @@
   </si>
   <si>
     <t>Profile</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Choices/Options</t>
+  </si>
+  <si>
+    <t>Basic Account Information</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>(Password input field)</t>
+  </si>
+  <si>
+    <t>Personal Information</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Male, Female, Other</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>(Date picker)</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>(cm)</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>(kg)</t>
+  </si>
+  <si>
+    <t>Goal Setting</t>
+  </si>
+  <si>
+    <t>Primary Health Goal</t>
+  </si>
+  <si>
+    <t>Maintain weight, Lose weight, Gain weight</t>
+  </si>
+  <si>
+    <t>Target Weight</t>
+  </si>
+  <si>
+    <t>Fitness Level</t>
+  </si>
+  <si>
+    <t>Activity Level</t>
+  </si>
+  <si>
+    <t>Sedentary, Lightly active, Moderately active, Very active, Extra active</t>
+  </si>
+  <si>
+    <t>Exercise Frequency (days per week)</t>
+  </si>
+  <si>
+    <t>(Number input)</t>
+  </si>
+  <si>
+    <t>Type of Exercise</t>
+  </si>
+  <si>
+    <t>Cardio, Weightlifting, Sports, Other</t>
+  </si>
+  <si>
+    <t>Exercise Duration</t>
+  </si>
+  <si>
+    <t>(minutes)</t>
+  </si>
+  <si>
+    <t>Health Measurements</t>
+  </si>
+  <si>
+    <t>Resting Metabolic Rate (RMR)</t>
+  </si>
+  <si>
+    <t>(Auto-calculated if possible)</t>
+  </si>
+  <si>
+    <t>Body Mass Index (BMI)</t>
+  </si>
+  <si>
+    <t>(Auto-calculated or user-entered)</t>
+  </si>
+  <si>
+    <t>Sleep Patterns</t>
+  </si>
+  <si>
+    <t>Average Sleep Time (hours per night)</t>
+  </si>
+  <si>
+    <t>(Duration picker)</t>
+  </si>
+  <si>
+    <t>Sleep Quality Rating</t>
+  </si>
+  <si>
+    <t>Scale: 1-10</t>
+  </si>
+  <si>
+    <t>Sleep Issues</t>
+  </si>
+  <si>
+    <t>Insomnia, Nightmares, Stress or Anxiety, Discomfort, Irregular Sleep Schedule, None</t>
+  </si>
+  <si>
+    <t>Average Water Intake (glasses per day)</t>
+  </si>
+  <si>
+    <t>Mental Health and Mood</t>
+  </si>
+  <si>
+    <t>Stress Level</t>
+  </si>
+  <si>
+    <t>Mood Frequency (feeling low)</t>
+  </si>
+  <si>
+    <t>Rarely, Occasionally, Often, Almost Always</t>
+  </si>
+  <si>
+    <t>Mood Improvement Goal</t>
+  </si>
+  <si>
+    <t>Mindfulness, More Physical Activity, Gratitude Journal, Connect with Others, Establish a Sleep Routine</t>
+  </si>
+  <si>
+    <t>Lifestyle Habits</t>
+  </si>
+  <si>
+    <t>Smokes</t>
+  </si>
+  <si>
+    <t>Yes, No</t>
+  </si>
+  <si>
+    <t>Alcohol Consumption</t>
+  </si>
+  <si>
+    <t>None, Occasional, Moderate, Frequent, Heavy</t>
+  </si>
+  <si>
+    <t>Mindfulness Practices</t>
+  </si>
+  <si>
+    <t>Screen Time (hours per day)</t>
+  </si>
+  <si>
+    <t>Long-Term Wellness Goals</t>
+  </si>
+  <si>
+    <t>Main Wellness Goal</t>
+  </si>
+  <si>
+    <t>Physical Health, Mental Wellbeing, Emotional Balance, Social Connections, Overall Wellness</t>
+  </si>
+  <si>
+    <t>Self Motivation</t>
+  </si>
+  <si>
+    <t>Biggest Challenge</t>
+  </si>
+  <si>
+    <t>Time Management, Motivation, Stress Management, Access to Resources, Support System</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Get User Data</t>
+  </si>
+  <si>
+    <t>Edit User Data</t>
+  </si>
+  <si>
+    <t>/user/&lt;id&gt;</t>
+  </si>
+  <si>
+    <t>Get User Assessment</t>
+  </si>
+  <si>
+    <t>/user/assessment/&lt;id&gt;</t>
+  </si>
+  <si>
+    <t>New User assessment</t>
+  </si>
+  <si>
+    <t>/user/assessment</t>
+  </si>
+  <si>
+    <t>Update User Assessment</t>
+  </si>
+  <si>
+    <t>Delete User Assessment</t>
   </si>
 </sst>
 </file>
@@ -365,7 +592,7 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +611,72 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -397,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -416,6 +709,62 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,17 +1045,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="36.1796875" customWidth="1"/>
     <col min="2" max="2" width="29.08984375" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" customWidth="1"/>
+    <col min="3" max="3" width="35.54296875" customWidth="1"/>
     <col min="4" max="4" width="48.90625" customWidth="1"/>
     <col min="5" max="5" width="16.08984375" customWidth="1"/>
   </cols>
@@ -1005,196 +1354,624 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="4" customFormat="1">
+    <row r="28" spans="1:4" s="4" customFormat="1" ht="28.5" customHeight="1">
       <c r="A28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="4" customFormat="1">
+      <c r="A31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="4" customFormat="1" ht="29">
+      <c r="A32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="7" customFormat="1" ht="29">
+      <c r="A33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="4" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" s="4" customFormat="1">
+      <c r="A35" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="9" customFormat="1">
+      <c r="A44" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="9" customFormat="1">
+      <c r="A45" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="D45" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="E45" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="4" customFormat="1" ht="29">
-      <c r="A29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="7" customFormat="1" ht="29">
-      <c r="A30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="4" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="4" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="4" customFormat="1">
-      <c r="A33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
+    <row r="46" spans="1:5" s="8" customFormat="1">
+      <c r="A46" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="B46" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E45" t="s">
+    </row>
+    <row r="47" spans="1:5" s="8" customFormat="1">
+      <c r="A47" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
+      <c r="B47" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C47" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D47" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="9" customFormat="1">
+      <c r="A48" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D46" t="s">
+    </row>
+    <row r="49" spans="1:5" s="9" customFormat="1">
+      <c r="A49" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
+    <row r="50" spans="1:5" s="9" customFormat="1">
+      <c r="A50" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B50" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C47" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
+      <c r="E50" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
+    <row r="51" spans="1:5" s="8" customFormat="1">
+      <c r="A51" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
+    <row r="52" spans="1:5" s="8" customFormat="1">
+      <c r="A52" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" t="s">
-        <v>93</v>
-      </c>
-      <c r="E50" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>103</v>
+    </row>
+    <row r="53" spans="1:5" s="8" customFormat="1">
+      <c r="A53" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="12"/>
+      <c r="B70" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+    </row>
+    <row r="77" spans="1:4" ht="29">
+      <c r="A77" s="15"/>
+      <c r="B77" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+    </row>
+    <row r="80" spans="1:4" ht="29">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="29">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="19"/>
+      <c r="B85" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="19"/>
+      <c r="B86" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+    </row>
+    <row r="88" spans="1:3" ht="29">
+      <c r="A88" s="21"/>
+      <c r="B88" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="21"/>
+      <c r="B89" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="43.5">
+      <c r="A90" s="21"/>
+      <c r="B90" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+    </row>
+    <row r="92" spans="1:3" ht="29">
+      <c r="A92" s="23"/>
+      <c r="B92" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="25"/>
+      <c r="B94" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="29">
+      <c r="A95" s="25"/>
+      <c r="B95" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="43.5">
+      <c r="A96" s="25"/>
+      <c r="B96" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="27"/>
+      <c r="B98" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C98" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="29">
+      <c r="A99" s="27"/>
+      <c r="B99" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="27"/>
+      <c r="B100" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C100" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="27"/>
+      <c r="B101" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C101" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+    </row>
+    <row r="103" spans="1:3" ht="43.5">
+      <c r="A103" s="11"/>
+      <c r="B103" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="11"/>
+      <c r="B104" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="43.5">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Backend/API.xlsx
+++ b/Backend/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\287927\Documents\Project\Balance Point\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD810EF8-D1E2-4F81-B4C8-ACF94C6241E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D539F2F7-1B39-4591-8DE5-113DC0D7B399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="180">
   <si>
     <t>API Name</t>
   </si>
@@ -564,6 +564,18 @@
   </si>
   <si>
     <t>Delete User Assessment</t>
+  </si>
+  <si>
+    <t>npm install @fortawesome/fontawesome-free</t>
+  </si>
+  <si>
+    <t>npm install @nivo/line</t>
+  </si>
+  <si>
+    <t>antd</t>
+  </si>
+  <si>
+    <t>npm install @reduxjs/toolkit react-redux</t>
   </si>
 </sst>
 </file>
@@ -1045,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1974,6 +1986,26 @@
         <v>165</v>
       </c>
     </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
